--- a/Excels/Segments_vectors_Ron_Olga.xlsx
+++ b/Excels/Segments_vectors_Ron_Olga.xlsx
@@ -19225,772 +19225,772 @@
     <t>0.056702468544244766</t>
   </si>
   <si>
-    <t>0.07734334746575248</t>
-  </si>
-  <si>
-    <t>-0.009329942365054324</t>
-  </si>
-  <si>
-    <t>-0.06180718678011284</t>
-  </si>
-  <si>
-    <t>0.034518128489188324</t>
-  </si>
-  <si>
-    <t>0.04626381074454652</t>
-  </si>
-  <si>
-    <t>-0.06723501852996248</t>
-  </si>
-  <si>
-    <t>-0.015576021061341245</t>
-  </si>
-  <si>
-    <t>-0.014363595103321001</t>
-  </si>
-  <si>
-    <t>0.019223975578435266</t>
-  </si>
-  <si>
-    <t>-0.051261909569413025</t>
-  </si>
-  <si>
-    <t>0.05117476743180305</t>
-  </si>
-  <si>
-    <t>-0.05668787523713296</t>
-  </si>
-  <si>
-    <t>0.038374701338398154</t>
-  </si>
-  <si>
-    <t>0.06115836867268497</t>
-  </si>
-  <si>
-    <t>0.010847332057453838</t>
-  </si>
-  <si>
-    <t>-0.06461768041585206</t>
-  </si>
-  <si>
-    <t>-0.08088983510866196</t>
-  </si>
-  <si>
-    <t>0.03491969911660168</t>
-  </si>
-  <si>
-    <t>-0.0016363887769849888</t>
-  </si>
-  <si>
-    <t>-0.03265801948613704</t>
-  </si>
-  <si>
-    <t>0.03131339881734415</t>
-  </si>
-  <si>
-    <t>-0.02022332477281452</t>
-  </si>
-  <si>
-    <t>-0.08232585246358733</t>
-  </si>
-  <si>
-    <t>0.013129098492754565</t>
-  </si>
-  <si>
-    <t>0.016254007398726702</t>
-  </si>
-  <si>
-    <t>-0.01577992156372992</t>
-  </si>
-  <si>
-    <t>0.08521696096951407</t>
-  </si>
-  <si>
-    <t>0.09491315608777638</t>
-  </si>
-  <si>
-    <t>-0.024215112216779744</t>
-  </si>
-  <si>
-    <t>0.10360068169289402</t>
-  </si>
-  <si>
-    <t>-0.1175716696805986</t>
-  </si>
-  <si>
-    <t>0.06173105859105427</t>
-  </si>
-  <si>
-    <t>0.0007348411436396418</t>
-  </si>
-  <si>
-    <t>0.006829740441759213</t>
-  </si>
-  <si>
-    <t>0.06144261054441813</t>
-  </si>
-  <si>
-    <t>0.0028795563592081764</t>
-  </si>
-  <si>
-    <t>0.0342127328963865</t>
-  </si>
-  <si>
-    <t>0.07212741526018362</t>
-  </si>
-  <si>
-    <t>0.010381146849015619</t>
-  </si>
-  <si>
-    <t>0.010543208113371552</t>
-  </si>
-  <si>
-    <t>0.0028094175729295656</t>
-  </si>
-  <si>
-    <t>-0.02839380370962122</t>
-  </si>
-  <si>
-    <t>-0.042186349509458</t>
-  </si>
-  <si>
-    <t>0.03966278911512485</t>
-  </si>
-  <si>
-    <t>0.09877026845814336</t>
-  </si>
-  <si>
-    <t>0.015872174394059715</t>
-  </si>
-  <si>
-    <t>0.043629368311875236</t>
-  </si>
-  <si>
-    <t>-0.059100233048021825</t>
-  </si>
-  <si>
-    <t>0.035752258667993635</t>
-  </si>
-  <si>
-    <t>-0.06131472721088877</t>
-  </si>
-  <si>
-    <t>-0.08774141615835365</t>
-  </si>
-  <si>
-    <t>-0.010053198827985657</t>
-  </si>
-  <si>
-    <t>-0.01963333894218522</t>
-  </si>
-  <si>
-    <t>0.03538074960488302</t>
-  </si>
-  <si>
-    <t>-0.0688681544852443</t>
-  </si>
-  <si>
-    <t>-0.047587335639296464</t>
-  </si>
-  <si>
-    <t>-0.0169437500319743</t>
-  </si>
-  <si>
-    <t>-0.0557626003283076</t>
-  </si>
-  <si>
-    <t>-0.01782476744145762</t>
-  </si>
-  <si>
-    <t>-0.026077286867803195</t>
-  </si>
-  <si>
-    <t>-0.07338412473576941</t>
-  </si>
-  <si>
-    <t>0.031532192103376086</t>
-  </si>
-  <si>
-    <t>-0.020910657485338952</t>
-  </si>
-  <si>
-    <t>0.07294634949357715</t>
-  </si>
-  <si>
-    <t>0.08473718584303112</t>
-  </si>
-  <si>
-    <t>-0.011751786048729887</t>
-  </si>
-  <si>
-    <t>-0.08210382294575018</t>
-  </si>
-  <si>
-    <t>-0.031285298666521806</t>
-  </si>
-  <si>
-    <t>-0.01668624059321441</t>
-  </si>
-  <si>
-    <t>-0.07551408825383987</t>
-  </si>
-  <si>
-    <t>0.05585574152896048</t>
-  </si>
-  <si>
-    <t>0.06848722499788502</t>
-  </si>
-  <si>
-    <t>-0.10036446389546784</t>
-  </si>
-  <si>
-    <t>-0.011892303586396988</t>
-  </si>
-  <si>
-    <t>-0.04093816236958706</t>
-  </si>
-  <si>
-    <t>-0.13418990370285297</t>
-  </si>
-  <si>
-    <t>0.025204355969045928</t>
-  </si>
-  <si>
-    <t>-0.016721647652827545</t>
-  </si>
-  <si>
-    <t>0.007943561645423156</t>
-  </si>
-  <si>
-    <t>0.062065314002601166</t>
-  </si>
-  <si>
-    <t>0.009176167058382947</t>
-  </si>
-  <si>
-    <t>0.019909114448767338</t>
-  </si>
-  <si>
-    <t>0.07361827449390798</t>
-  </si>
-  <si>
-    <t>0.042900768295762</t>
-  </si>
-  <si>
-    <t>0.023677606911860494</t>
-  </si>
-  <si>
-    <t>-0.06158777109417964</t>
-  </si>
-  <si>
-    <t>-0.012447486499143321</t>
-  </si>
-  <si>
-    <t>-0.037296860304195434</t>
-  </si>
-  <si>
-    <t>0.06482041942425505</t>
-  </si>
-  <si>
-    <t>0.004651991144393313</t>
-  </si>
-  <si>
-    <t>0.03231030771004433</t>
-  </si>
-  <si>
-    <t>0.09177859051851556</t>
-  </si>
-  <si>
-    <t>-0.06422640907112509</t>
-  </si>
-  <si>
-    <t>-0.023424832912236786</t>
-  </si>
-  <si>
-    <t>-0.05891048550672297</t>
-  </si>
-  <si>
-    <t>0.0769656698944995</t>
-  </si>
-  <si>
-    <t>0.04231986550686478</t>
-  </si>
-  <si>
-    <t>-0.032525031646855496</t>
-  </si>
-  <si>
-    <t>0.12016540226925697</t>
-  </si>
-  <si>
-    <t>-0.08427437260148249</t>
-  </si>
-  <si>
-    <t>-0.024778451413762274</t>
-  </si>
-  <si>
-    <t>0.035917424137291425</t>
-  </si>
-  <si>
-    <t>-0.07203999719682283</t>
-  </si>
-  <si>
-    <t>-0.058193031400670794</t>
-  </si>
-  <si>
-    <t>-0.024467381156682677</t>
-  </si>
-  <si>
-    <t>0.022282826041841224</t>
-  </si>
-  <si>
-    <t>0.004632844416586782</t>
-  </si>
-  <si>
-    <t>-0.040590910192284876</t>
-  </si>
-  <si>
-    <t>0.02934304733207682</t>
-  </si>
-  <si>
-    <t>-0.005439161469224375</t>
-  </si>
-  <si>
-    <t>0.06568162750487058</t>
-  </si>
-  <si>
-    <t>0.0961560454618718</t>
-  </si>
-  <si>
-    <t>-0.03481610507541128</t>
-  </si>
-  <si>
-    <t>-0.06480289896717295</t>
-  </si>
-  <si>
-    <t>-0.08312233164906502</t>
-  </si>
-  <si>
-    <t>-0.003654017109251332</t>
-  </si>
-  <si>
-    <t>-0.04488496699783744</t>
-  </si>
-  <si>
-    <t>0.009147790668423892</t>
-  </si>
-  <si>
-    <t>-0.02584382001987251</t>
-  </si>
-  <si>
-    <t>-0.004017761738331111</t>
-  </si>
-  <si>
-    <t>-0.01771571713938361</t>
-  </si>
-  <si>
-    <t>-0.019126097007204277</t>
-  </si>
-  <si>
-    <t>0.05370283965541083</t>
-  </si>
-  <si>
-    <t>0.058623338833318224</t>
-  </si>
-  <si>
-    <t>-0.04863682586281876</t>
-  </si>
-  <si>
-    <t>0.02123919366528883</t>
-  </si>
-  <si>
-    <t>0.047405008787921234</t>
-  </si>
-  <si>
-    <t>-0.04269367517086461</t>
-  </si>
-  <si>
-    <t>0.026184173245943448</t>
-  </si>
-  <si>
-    <t>-0.03064343774459693</t>
-  </si>
-  <si>
-    <t>0.0564667673297663</t>
-  </si>
-  <si>
-    <t>-0.010242503855449416</t>
-  </si>
-  <si>
-    <t>-0.11902801724084254</t>
-  </si>
-  <si>
-    <t>0.040243862155421084</t>
-  </si>
-  <si>
-    <t>-0.035354790248090594</t>
-  </si>
-  <si>
-    <t>-0.024093485882985988</t>
-  </si>
-  <si>
-    <t>-0.00947493031344493</t>
-  </si>
-  <si>
-    <t>-0.04163696250101826</t>
-  </si>
-  <si>
-    <t>0.004010210538630028</t>
-  </si>
-  <si>
-    <t>-0.06718376940573632</t>
-  </si>
-  <si>
-    <t>-0.12814732009012783</t>
-  </si>
-  <si>
-    <t>0.03145336024009079</t>
-  </si>
-  <si>
-    <t>0.10085182325981025</t>
-  </si>
-  <si>
-    <t>-0.09289101744070649</t>
-  </si>
-  <si>
-    <t>0.016982183161124858</t>
-  </si>
-  <si>
-    <t>0.0769050601634912</t>
-  </si>
-  <si>
-    <t>0.045147731453263465</t>
-  </si>
-  <si>
-    <t>-0.12701229411842568</t>
-  </si>
-  <si>
-    <t>0.03468158071336802</t>
-  </si>
-  <si>
-    <t>0.082348072044884</t>
-  </si>
-  <si>
-    <t>0.042136603185229306</t>
-  </si>
-  <si>
-    <t>-0.01620408746956465</t>
-  </si>
-  <si>
-    <t>-0.05575359164816161</t>
-  </si>
-  <si>
-    <t>0.003489275411214164</t>
-  </si>
-  <si>
-    <t>0.06272392473433033</t>
-  </si>
-  <si>
-    <t>-0.12739979958028666</t>
-  </si>
-  <si>
-    <t>0.10911813545473185</t>
-  </si>
-  <si>
-    <t>0.05626579044454567</t>
-  </si>
-  <si>
-    <t>0.09216996333894453</t>
-  </si>
-  <si>
-    <t>-0.04608676715828811</t>
-  </si>
-  <si>
-    <t>-0.03697556752172204</t>
-  </si>
-  <si>
-    <t>0.04265727962462863</t>
-  </si>
-  <si>
-    <t>-0.026611893358546825</t>
-  </si>
-  <si>
-    <t>0.038405893976557436</t>
-  </si>
-  <si>
-    <t>-0.004516323297471965</t>
-  </si>
-  <si>
-    <t>-0.06398938033349363</t>
-  </si>
-  <si>
-    <t>-0.03116414733761173</t>
-  </si>
-  <si>
-    <t>-0.06650565032552029</t>
-  </si>
-  <si>
-    <t>0.03318178054938211</t>
-  </si>
-  <si>
-    <t>0.0766983532147216</t>
-  </si>
-  <si>
-    <t>-0.011532246646571107</t>
-  </si>
-  <si>
-    <t>0.02985275933315279</t>
-  </si>
-  <si>
-    <t>-0.007684270533315741</t>
-  </si>
-  <si>
-    <t>0.056263261628503515</t>
-  </si>
-  <si>
-    <t>-0.03539646028990059</t>
-  </si>
-  <si>
-    <t>-0.05255733336317852</t>
-  </si>
-  <si>
-    <t>0.043059131673154685</t>
-  </si>
-  <si>
-    <t>-0.08014770701161719</t>
-  </si>
-  <si>
-    <t>0.1627215597129959</t>
-  </si>
-  <si>
-    <t>0.00894052254982723</t>
-  </si>
-  <si>
-    <t>0.0038213191796135754</t>
-  </si>
-  <si>
-    <t>0.013615104822054238</t>
-  </si>
-  <si>
-    <t>-0.020040050197297075</t>
-  </si>
-  <si>
-    <t>-0.05926323414730307</t>
-  </si>
-  <si>
-    <t>0.006958615228995768</t>
-  </si>
-  <si>
-    <t>0.0109033187553028</t>
-  </si>
-  <si>
-    <t>-0.0017088417271224898</t>
-  </si>
-  <si>
-    <t>0.07423388944672686</t>
-  </si>
-  <si>
-    <t>-0.11536622772525464</t>
-  </si>
-  <si>
-    <t>0.058329411159450374</t>
-  </si>
-  <si>
-    <t>-0.061890956757322</t>
-  </si>
-  <si>
-    <t>0.05394570647747189</t>
-  </si>
-  <si>
-    <t>-0.04252095603351336</t>
-  </si>
-  <si>
-    <t>-0.054285570813850166</t>
-  </si>
-  <si>
-    <t>-0.061684047326187805</t>
-  </si>
-  <si>
-    <t>0.16949056098902865</t>
-  </si>
-  <si>
-    <t>0.013153671054169536</t>
-  </si>
-  <si>
-    <t>-0.09005368915885421</t>
-  </si>
-  <si>
-    <t>0.06797150131959435</t>
-  </si>
-  <si>
-    <t>0.030056607152801007</t>
-  </si>
-  <si>
-    <t>-0.030251912659098577</t>
-  </si>
-  <si>
-    <t>0.06001603007669993</t>
-  </si>
-  <si>
-    <t>-0.05649388566962443</t>
-  </si>
-  <si>
-    <t>-0.020987523450933004</t>
-  </si>
-  <si>
-    <t>0.028153209611576</t>
-  </si>
-  <si>
-    <t>-0.032736049640984026</t>
-  </si>
-  <si>
-    <t>0.03843316354115294</t>
-  </si>
-  <si>
-    <t>-0.030022469035429822</t>
-  </si>
-  <si>
-    <t>0.05201877031608352</t>
-  </si>
-  <si>
-    <t>0.04313432959718609</t>
-  </si>
-  <si>
-    <t>0.050957875049789436</t>
-  </si>
-  <si>
-    <t>-1.1291087633123556e-05</t>
-  </si>
-  <si>
-    <t>0.04265678428289123</t>
-  </si>
-  <si>
-    <t>0.06611201373899737</t>
-  </si>
-  <si>
-    <t>0.007743550214854622</t>
-  </si>
-  <si>
-    <t>0.014823101136763788</t>
-  </si>
-  <si>
-    <t>-0.11939557239280216</t>
-  </si>
-  <si>
-    <t>-0.0208374997343656</t>
-  </si>
-  <si>
-    <t>-0.06558852670215336</t>
-  </si>
-  <si>
-    <t>0.043578334998788444</t>
-  </si>
-  <si>
-    <t>0.05038659406065043</t>
-  </si>
-  <si>
-    <t>0.0847305819835518</t>
-  </si>
-  <si>
-    <t>-0.11479230233401592</t>
-  </si>
-  <si>
-    <t>-0.009965165199251455</t>
-  </si>
-  <si>
-    <t>0.1307182797796226</t>
-  </si>
-  <si>
-    <t>-0.011907280782419807</t>
-  </si>
-  <si>
-    <t>0.03699022561678638</t>
-  </si>
-  <si>
-    <t>-0.021012331338137562</t>
-  </si>
-  <si>
-    <t>0.008111221638370938</t>
-  </si>
-  <si>
-    <t>-0.0043015777606082595</t>
-  </si>
-  <si>
-    <t>-0.026365868983183254</t>
-  </si>
-  <si>
-    <t>0.05760426305979698</t>
-  </si>
-  <si>
-    <t>0.025596674386698787</t>
-  </si>
-  <si>
-    <t>0.034853067498261225</t>
-  </si>
-  <si>
-    <t>-0.04023893373752279</t>
-  </si>
-  <si>
-    <t>-0.04596869113291697</t>
-  </si>
-  <si>
-    <t>-0.012313568006334208</t>
-  </si>
-  <si>
-    <t>0.11013114572103534</t>
-  </si>
-  <si>
-    <t>0.04496480956488215</t>
-  </si>
-  <si>
-    <t>-0.023838710300749102</t>
-  </si>
-  <si>
-    <t>0.0036247135308907935</t>
-  </si>
-  <si>
-    <t>-0.10697255760896951</t>
-  </si>
-  <si>
-    <t>0.040096947752837356</t>
-  </si>
-  <si>
-    <t>-0.021036013553818123</t>
-  </si>
-  <si>
-    <t>-0.04832231692437615</t>
-  </si>
-  <si>
-    <t>-0.023820557630512797</t>
-  </si>
-  <si>
-    <t>-0.01791823738975446</t>
-  </si>
-  <si>
-    <t>-0.013305374542109607</t>
-  </si>
-  <si>
-    <t>-0.020328545954855923</t>
-  </si>
-  <si>
-    <t>0.055044576466441085</t>
-  </si>
-  <si>
-    <t>0.03803199717575418</t>
-  </si>
-  <si>
-    <t>-0.03017766631013988</t>
-  </si>
-  <si>
-    <t>-0.0032136747964354334</t>
-  </si>
-  <si>
-    <t>-0.009929154852865654</t>
-  </si>
-  <si>
-    <t>0.05008098546776247</t>
-  </si>
-  <si>
-    <t>0.048085910410918586</t>
+    <t>0.07732241849104564</t>
+  </si>
+  <si>
+    <t>0.007639946726461251</t>
+  </si>
+  <si>
+    <t>-0.04680694515506426</t>
+  </si>
+  <si>
+    <t>0.020710963134964306</t>
+  </si>
+  <si>
+    <t>0.057624017198880516</t>
+  </si>
+  <si>
+    <t>-0.04707043928404649</t>
+  </si>
+  <si>
+    <t>-0.0023928605563317737</t>
+  </si>
+  <si>
+    <t>0.021763696956137817</t>
+  </si>
+  <si>
+    <t>0.013189016841351986</t>
+  </si>
+  <si>
+    <t>-0.05689354178806146</t>
+  </si>
+  <si>
+    <t>0.05501320337255796</t>
+  </si>
+  <si>
+    <t>-0.058209759493668876</t>
+  </si>
+  <si>
+    <t>0.053721796721220016</t>
+  </si>
+  <si>
+    <t>0.04782328009605408</t>
+  </si>
+  <si>
+    <t>0.044627039382855095</t>
+  </si>
+  <si>
+    <t>-0.06551617756485939</t>
+  </si>
+  <si>
+    <t>-0.08959862341483434</t>
+  </si>
+  <si>
+    <t>0.03275813038150469</t>
+  </si>
+  <si>
+    <t>-0.004581265772382419</t>
+  </si>
+  <si>
+    <t>-0.0491933049634099</t>
+  </si>
+  <si>
+    <t>0.020822511209795874</t>
+  </si>
+  <si>
+    <t>-0.020678489779432613</t>
+  </si>
+  <si>
+    <t>-0.06633935372034709</t>
+  </si>
+  <si>
+    <t>0.027096253509322803</t>
+  </si>
+  <si>
+    <t>-0.0016911725203196208</t>
+  </si>
+  <si>
+    <t>-0.044067668418089546</t>
+  </si>
+  <si>
+    <t>0.09720044583082199</t>
+  </si>
+  <si>
+    <t>0.1005756879846255</t>
+  </si>
+  <si>
+    <t>-0.004621464138229688</t>
+  </si>
+  <si>
+    <t>0.10184039672215779</t>
+  </si>
+  <si>
+    <t>-0.10947709778944652</t>
+  </si>
+  <si>
+    <t>0.09447634468475978</t>
+  </si>
+  <si>
+    <t>-0.009747041777397195</t>
+  </si>
+  <si>
+    <t>0.012717201219250759</t>
+  </si>
+  <si>
+    <t>0.07321519032120705</t>
+  </si>
+  <si>
+    <t>-6.438512355089188e-05</t>
+  </si>
+  <si>
+    <t>0.06235348309079806</t>
+  </si>
+  <si>
+    <t>0.06354077036182086</t>
+  </si>
+  <si>
+    <t>0.003984213185807069</t>
+  </si>
+  <si>
+    <t>0.007412622527529796</t>
+  </si>
+  <si>
+    <t>0.009115817956626415</t>
+  </si>
+  <si>
+    <t>-0.03551571692029635</t>
+  </si>
+  <si>
+    <t>-0.03539480393131574</t>
+  </si>
+  <si>
+    <t>0.03686664439737797</t>
+  </si>
+  <si>
+    <t>0.1504574865102768</t>
+  </si>
+  <si>
+    <t>0.017081084350744884</t>
+  </si>
+  <si>
+    <t>0.050777098163962364</t>
+  </si>
+  <si>
+    <t>-0.06369682898124059</t>
+  </si>
+  <si>
+    <t>0.03147244406864047</t>
+  </si>
+  <si>
+    <t>-0.047021338095267616</t>
+  </si>
+  <si>
+    <t>-0.08608511090278625</t>
+  </si>
+  <si>
+    <t>-0.026849790165821712</t>
+  </si>
+  <si>
+    <t>-0.004181583373186489</t>
+  </si>
+  <si>
+    <t>0.022929922367135685</t>
+  </si>
+  <si>
+    <t>-0.057378136863311134</t>
+  </si>
+  <si>
+    <t>-0.0729599396387736</t>
+  </si>
+  <si>
+    <t>-0.01231241753945748</t>
+  </si>
+  <si>
+    <t>-0.053691220780213676</t>
+  </si>
+  <si>
+    <t>-0.04011376202106476</t>
+  </si>
+  <si>
+    <t>-0.03427052746216456</t>
+  </si>
+  <si>
+    <t>-0.06721637894709905</t>
+  </si>
+  <si>
+    <t>0.01691833883523941</t>
+  </si>
+  <si>
+    <t>-0.022132379313309986</t>
+  </si>
+  <si>
+    <t>0.0760501151283582</t>
+  </si>
+  <si>
+    <t>0.08416497459014256</t>
+  </si>
+  <si>
+    <t>-0.008003445342183113</t>
+  </si>
+  <si>
+    <t>-0.05776502564549446</t>
+  </si>
+  <si>
+    <t>-0.02553613670170307</t>
+  </si>
+  <si>
+    <t>-0.03280512895435095</t>
+  </si>
+  <si>
+    <t>-0.052168264985084534</t>
+  </si>
+  <si>
+    <t>0.05211629966894785</t>
+  </si>
+  <si>
+    <t>0.07755463570356369</t>
+  </si>
+  <si>
+    <t>-0.0710544263323148</t>
+  </si>
+  <si>
+    <t>-0.012534806815286478</t>
+  </si>
+  <si>
+    <t>-0.013114579332371553</t>
+  </si>
+  <si>
+    <t>-0.13998715579509735</t>
+  </si>
+  <si>
+    <t>0.03825512404243151</t>
+  </si>
+  <si>
+    <t>-0.020838454909001786</t>
+  </si>
+  <si>
+    <t>-0.012590742204338312</t>
+  </si>
+  <si>
+    <t>0.05056928098201752</t>
+  </si>
+  <si>
+    <t>0.022319145500659943</t>
+  </si>
+  <si>
+    <t>0.010933310724794865</t>
+  </si>
+  <si>
+    <t>0.09508320440848668</t>
+  </si>
+  <si>
+    <t>0.022393326740711927</t>
+  </si>
+  <si>
+    <t>0.032479058330257736</t>
+  </si>
+  <si>
+    <t>-0.08185996611913045</t>
+  </si>
+  <si>
+    <t>-0.017939297676396865</t>
+  </si>
+  <si>
+    <t>-0.02152519952505827</t>
+  </si>
+  <si>
+    <t>0.07282880569497745</t>
+  </si>
+  <si>
+    <t>0.005386590336759885</t>
+  </si>
+  <si>
+    <t>0.04438429574171702</t>
+  </si>
+  <si>
+    <t>0.11079218486944835</t>
+  </si>
+  <si>
+    <t>-0.07737627004583676</t>
+  </si>
+  <si>
+    <t>-0.02057636808604002</t>
+  </si>
+  <si>
+    <t>-0.04239411652088165</t>
+  </si>
+  <si>
+    <t>0.05796502406398455</t>
+  </si>
+  <si>
+    <t>0.04440617747604847</t>
+  </si>
+  <si>
+    <t>-0.01726102487494548</t>
+  </si>
+  <si>
+    <t>0.12309105942646663</t>
+  </si>
+  <si>
+    <t>-0.09086791177590688</t>
+  </si>
+  <si>
+    <t>0.017425754573196173</t>
+  </si>
+  <si>
+    <t>0.06729346513748169</t>
+  </si>
+  <si>
+    <t>-0.09343791877230008</t>
+  </si>
+  <si>
+    <t>-0.0681245947877566</t>
+  </si>
+  <si>
+    <t>-0.033785623808701835</t>
+  </si>
+  <si>
+    <t>-0.0013923744360605876</t>
+  </si>
+  <si>
+    <t>0.014139090509464344</t>
+  </si>
+  <si>
+    <t>-0.03764264347652594</t>
+  </si>
+  <si>
+    <t>0.029336133040487766</t>
+  </si>
+  <si>
+    <t>-0.02347621073325475</t>
+  </si>
+  <si>
+    <t>0.06799222777287166</t>
+  </si>
+  <si>
+    <t>0.09358852605024974</t>
+  </si>
+  <si>
+    <t>-0.05170883983373642</t>
+  </si>
+  <si>
+    <t>-0.06292005131642024</t>
+  </si>
+  <si>
+    <t>-0.08466073373953502</t>
+  </si>
+  <si>
+    <t>-0.015001091795663038</t>
+  </si>
+  <si>
+    <t>-0.03710237766305605</t>
+  </si>
+  <si>
+    <t>0.004750030251064648</t>
+  </si>
+  <si>
+    <t>-0.029672696565588314</t>
+  </si>
+  <si>
+    <t>-0.017299236729741096</t>
+  </si>
+  <si>
+    <t>-0.008306741714477539</t>
+  </si>
+  <si>
+    <t>-0.01693587478560706</t>
+  </si>
+  <si>
+    <t>0.03665325169761976</t>
+  </si>
+  <si>
+    <t>0.07556419136623542</t>
+  </si>
+  <si>
+    <t>-0.052961175640424095</t>
+  </si>
+  <si>
+    <t>0.04783469128111998</t>
+  </si>
+  <si>
+    <t>0.05428608258565267</t>
+  </si>
+  <si>
+    <t>-0.05323610951503118</t>
+  </si>
+  <si>
+    <t>-0.005686961890508731</t>
+  </si>
+  <si>
+    <t>0.0032187497708946466</t>
+  </si>
+  <si>
+    <t>0.06890885531902313</t>
+  </si>
+  <si>
+    <t>-0.03170331008732319</t>
+  </si>
+  <si>
+    <t>-0.11708748837312062</t>
+  </si>
+  <si>
+    <t>0.039293151969710984</t>
+  </si>
+  <si>
+    <t>-0.009375586484869322</t>
+  </si>
+  <si>
+    <t>-0.03179012549420198</t>
+  </si>
+  <si>
+    <t>-0.00022238058348496756</t>
+  </si>
+  <si>
+    <t>-0.030154917389154434</t>
+  </si>
+  <si>
+    <t>-0.04108213229725758</t>
+  </si>
+  <si>
+    <t>-0.0885450690984726</t>
+  </si>
+  <si>
+    <t>-0.10647907108068466</t>
+  </si>
+  <si>
+    <t>0.027483974273006122</t>
+  </si>
+  <si>
+    <t>0.0988665297627449</t>
+  </si>
+  <si>
+    <t>-0.0794960396985213</t>
+  </si>
+  <si>
+    <t>-0.0003954292430231969</t>
+  </si>
+  <si>
+    <t>0.07706380635499954</t>
+  </si>
+  <si>
+    <t>0.04262697199980418</t>
+  </si>
+  <si>
+    <t>-0.11916759610176086</t>
+  </si>
+  <si>
+    <t>0.04225144721567631</t>
+  </si>
+  <si>
+    <t>0.06826032946507136</t>
+  </si>
+  <si>
+    <t>0.0496605442215999</t>
+  </si>
+  <si>
+    <t>-0.027319055050611496</t>
+  </si>
+  <si>
+    <t>-0.06817577903469403</t>
+  </si>
+  <si>
+    <t>0.004580449623366197</t>
+  </si>
+  <si>
+    <t>0.05067705114682516</t>
+  </si>
+  <si>
+    <t>-0.11934006959199905</t>
+  </si>
+  <si>
+    <t>0.09675407658020656</t>
+  </si>
+  <si>
+    <t>0.022653251886367798</t>
+  </si>
+  <si>
+    <t>0.10456905762354533</t>
+  </si>
+  <si>
+    <t>-0.055015419920285545</t>
+  </si>
+  <si>
+    <t>-0.04553434004386266</t>
+  </si>
+  <si>
+    <t>0.029216255371769268</t>
+  </si>
+  <si>
+    <t>-0.01624826993793249</t>
+  </si>
+  <si>
+    <t>0.02181016777952512</t>
+  </si>
+  <si>
+    <t>-0.004011261897782485</t>
+  </si>
+  <si>
+    <t>-0.05279405663410822</t>
+  </si>
+  <si>
+    <t>-0.06895720462004344</t>
+  </si>
+  <si>
+    <t>-0.07538397858540218</t>
+  </si>
+  <si>
+    <t>0.024409473252793152</t>
+  </si>
+  <si>
+    <t>0.08178980648517609</t>
+  </si>
+  <si>
+    <t>0.005767592694610357</t>
+  </si>
+  <si>
+    <t>0.033155047645171486</t>
+  </si>
+  <si>
+    <t>-0.01019559936442723</t>
+  </si>
+  <si>
+    <t>0.05960783362388611</t>
+  </si>
+  <si>
+    <t>-0.03564319076637427</t>
+  </si>
+  <si>
+    <t>-0.034694671630859375</t>
+  </si>
+  <si>
+    <t>0.04333719486991564</t>
+  </si>
+  <si>
+    <t>-0.09701591978470485</t>
+  </si>
+  <si>
+    <t>0.15386893848578134</t>
+  </si>
+  <si>
+    <t>0.005443221578995387</t>
+  </si>
+  <si>
+    <t>0.015406539042790731</t>
+  </si>
+  <si>
+    <t>0.011264431600769361</t>
+  </si>
+  <si>
+    <t>-0.041739851236343384</t>
+  </si>
+  <si>
+    <t>-0.0477035790681839</t>
+  </si>
+  <si>
+    <t>0.0029406309283028045</t>
+  </si>
+  <si>
+    <t>-0.015143324621021748</t>
+  </si>
+  <si>
+    <t>0.012372325795392195</t>
+  </si>
+  <si>
+    <t>0.0823670228322347</t>
+  </si>
+  <si>
+    <t>-0.10955212513605754</t>
+  </si>
+  <si>
+    <t>0.0706097533305486</t>
+  </si>
+  <si>
+    <t>-0.03673757053911686</t>
+  </si>
+  <si>
+    <t>0.07225645830233891</t>
+  </si>
+  <si>
+    <t>-0.04073624747494856</t>
+  </si>
+  <si>
+    <t>-0.07012572015325229</t>
+  </si>
+  <si>
+    <t>-0.08775235960880916</t>
+  </si>
+  <si>
+    <t>0.15165841579437256</t>
+  </si>
+  <si>
+    <t>0.03616937746604284</t>
+  </si>
+  <si>
+    <t>-0.0794961079955101</t>
+  </si>
+  <si>
+    <t>0.0963064655661583</t>
+  </si>
+  <si>
+    <t>0.02280441236992677</t>
+  </si>
+  <si>
+    <t>-0.032157581920425095</t>
+  </si>
+  <si>
+    <t>0.06511339048544566</t>
+  </si>
+  <si>
+    <t>-0.07068921873966853</t>
+  </si>
+  <si>
+    <t>-0.017370773168901604</t>
+  </si>
+  <si>
+    <t>0.01241060501585404</t>
+  </si>
+  <si>
+    <t>-0.05373489980896314</t>
+  </si>
+  <si>
+    <t>0.021223879884928465</t>
+  </si>
+  <si>
+    <t>-0.04177468083798885</t>
+  </si>
+  <si>
+    <t>0.06452176223198573</t>
+  </si>
+  <si>
+    <t>0.05612800891200701</t>
+  </si>
+  <si>
+    <t>0.044221065317591034</t>
+  </si>
+  <si>
+    <t>-0.017954279358188312</t>
+  </si>
+  <si>
+    <t>0.05900407209992409</t>
+  </si>
+  <si>
+    <t>0.09661944458882014</t>
+  </si>
+  <si>
+    <t>0.005403000550965468</t>
+  </si>
+  <si>
+    <t>0.004487597228338321</t>
+  </si>
+  <si>
+    <t>-0.12938710550467172</t>
+  </si>
+  <si>
+    <t>-0.034553948789834976</t>
+  </si>
+  <si>
+    <t>-0.059755111734072365</t>
+  </si>
+  <si>
+    <t>0.030499304955204327</t>
+  </si>
+  <si>
+    <t>0.07305872937043507</t>
+  </si>
+  <si>
+    <t>0.09129174550374348</t>
+  </si>
+  <si>
+    <t>-0.10421152164538701</t>
+  </si>
+  <si>
+    <t>0.00012338130424420038</t>
+  </si>
+  <si>
+    <t>0.14365863551696142</t>
+  </si>
+  <si>
+    <t>-0.02550472676133116</t>
+  </si>
+  <si>
+    <t>0.008934472221881151</t>
+  </si>
+  <si>
+    <t>-0.018998172134160995</t>
+  </si>
+  <si>
+    <t>0.02154392407586177</t>
+  </si>
+  <si>
+    <t>-0.0140372677706182</t>
+  </si>
+  <si>
+    <t>-0.016452818798522156</t>
+  </si>
+  <si>
+    <t>0.04776723931233088</t>
+  </si>
+  <si>
+    <t>0.025617077636222046</t>
+  </si>
+  <si>
+    <t>0.04060464243715008</t>
+  </si>
+  <si>
+    <t>-0.030111951753497124</t>
+  </si>
+  <si>
+    <t>-0.07059829185406367</t>
+  </si>
+  <si>
+    <t>-0.013543427300949892</t>
+  </si>
+  <si>
+    <t>0.12102354814608891</t>
+  </si>
+  <si>
+    <t>0.03376805161436399</t>
+  </si>
+  <si>
+    <t>-0.02377926930785179</t>
+  </si>
+  <si>
+    <t>-0.0026197390786061683</t>
+  </si>
+  <si>
+    <t>-0.12140579024950664</t>
+  </si>
+  <si>
+    <t>0.043104672183593117</t>
+  </si>
+  <si>
+    <t>-0.013354282697643308</t>
+  </si>
+  <si>
+    <t>-0.062238565335671105</t>
+  </si>
+  <si>
+    <t>-0.015968937426805496</t>
+  </si>
+  <si>
+    <t>-0.019713496789336205</t>
+  </si>
+  <si>
+    <t>-0.021627116948366165</t>
+  </si>
+  <si>
+    <t>-0.029369012142221134</t>
+  </si>
+  <si>
+    <t>0.057177322606245674</t>
+  </si>
+  <si>
+    <t>0.038872189819812775</t>
+  </si>
+  <si>
+    <t>0.003473948842535416</t>
+  </si>
+  <si>
+    <t>0.02226216485723853</t>
+  </si>
+  <si>
+    <t>-0.006096924189478159</t>
+  </si>
+  <si>
+    <t>0.03346109762787819</t>
+  </si>
+  <si>
+    <t>0.05024116796751817</t>
   </si>
 </sst>
 </file>
